--- a/Code/Results/Cases/Case_0_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_245/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04331162895864082</v>
+        <v>0.1525498355650114</v>
       </c>
       <c r="D2">
-        <v>0.004454800927795155</v>
+        <v>0.01978436094723257</v>
       </c>
       <c r="E2">
-        <v>0.01993017044557432</v>
+        <v>0.09120834119893473</v>
       </c>
       <c r="F2">
-        <v>1.25678688583703</v>
+        <v>1.039537259670652</v>
       </c>
       <c r="G2">
-        <v>0.000761454959791567</v>
+        <v>0.002425020479432729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9540122897298744</v>
+        <v>0.9731179099746328</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02404871243593476</v>
+        <v>0.1082803219544983</v>
       </c>
       <c r="M2">
-        <v>2.895450714685012</v>
+        <v>1.196563620267767</v>
       </c>
       <c r="N2">
-        <v>3.952132432307735</v>
+        <v>1.774053148430852</v>
       </c>
       <c r="O2">
-        <v>4.035493679198737</v>
+        <v>3.624946256139026</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04462581299049617</v>
+        <v>0.154260758059241</v>
       </c>
       <c r="D3">
-        <v>0.004858976669953829</v>
+        <v>0.02000544761482859</v>
       </c>
       <c r="E3">
-        <v>0.02216142733167115</v>
+        <v>0.09286899463377518</v>
       </c>
       <c r="F3">
-        <v>1.108114260016038</v>
+        <v>1.011003328889217</v>
       </c>
       <c r="G3">
-        <v>0.0007677539490024942</v>
+        <v>0.002429262197577043</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.849342984955733</v>
+        <v>0.9563343663396182</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02713958502871883</v>
+        <v>0.1105012220155501</v>
       </c>
       <c r="M3">
-        <v>2.52360350737159</v>
+        <v>1.079975144303546</v>
       </c>
       <c r="N3">
-        <v>3.523488788247818</v>
+        <v>1.633127766037092</v>
       </c>
       <c r="O3">
-        <v>3.570080280676564</v>
+        <v>3.541073715263963</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04554883141353727</v>
+        <v>0.1553830669044487</v>
       </c>
       <c r="D4">
-        <v>0.005118123774118466</v>
+        <v>0.02014725347299073</v>
       </c>
       <c r="E4">
-        <v>0.0236301387435604</v>
+        <v>0.09394517187478457</v>
       </c>
       <c r="F4">
-        <v>1.019147776976325</v>
+        <v>0.9942231773205066</v>
       </c>
       <c r="G4">
-        <v>0.0007717408977374289</v>
+        <v>0.002432006603751962</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7870624097087884</v>
+        <v>0.9467221436595921</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02917903167765346</v>
+        <v>0.1119419180728993</v>
       </c>
       <c r="M4">
-        <v>2.295229086853936</v>
+        <v>1.008250412120361</v>
       </c>
       <c r="N4">
-        <v>3.260964094969466</v>
+        <v>1.54679984475311</v>
       </c>
       <c r="O4">
-        <v>3.292217086313741</v>
+        <v>3.492164271692445</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04595290342687619</v>
+        <v>0.1558584556828642</v>
       </c>
       <c r="D5">
-        <v>0.005226315177494278</v>
+        <v>0.02020656256090136</v>
       </c>
       <c r="E5">
-        <v>0.02425238848494399</v>
+        <v>0.09439791282622079</v>
       </c>
       <c r="F5">
-        <v>0.9834178489068819</v>
+        <v>0.9875704221649499</v>
       </c>
       <c r="G5">
-        <v>0.0007733965297505448</v>
+        <v>0.002433160283143916</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7621350971855634</v>
+        <v>0.9429786942008249</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03004411639671467</v>
+        <v>0.1125483527025919</v>
       </c>
       <c r="M5">
-        <v>2.202128202603475</v>
+        <v>0.9789896064578585</v>
       </c>
       <c r="N5">
-        <v>3.154129983188966</v>
+        <v>1.511675152813581</v>
       </c>
       <c r="O5">
-        <v>3.180776987483142</v>
+        <v>3.472881645203643</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04602165087003129</v>
+        <v>0.1559384826967545</v>
       </c>
       <c r="D6">
-        <v>0.005244431786171067</v>
+        <v>0.02021650268407882</v>
       </c>
       <c r="E6">
-        <v>0.02435711568496779</v>
+        <v>0.09447394643256513</v>
       </c>
       <c r="F6">
-        <v>0.9775149724210053</v>
+        <v>0.9864769070927082</v>
       </c>
       <c r="G6">
-        <v>0.000773673339033373</v>
+        <v>0.002433353986788789</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7580219513983835</v>
+        <v>0.9423675643306311</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03018977044518323</v>
+        <v>0.1126502176869106</v>
       </c>
       <c r="M6">
-        <v>2.186666080984523</v>
+        <v>0.9741289904716126</v>
       </c>
       <c r="N6">
-        <v>3.136398579732287</v>
+        <v>1.505846146994145</v>
       </c>
       <c r="O6">
-        <v>3.162375170603809</v>
+        <v>3.469718865053323</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04555416938049817</v>
+        <v>0.1553894051448239</v>
       </c>
       <c r="D7">
-        <v>0.005119572623339508</v>
+        <v>0.0201480471747888</v>
       </c>
       <c r="E7">
-        <v>0.02363843589749953</v>
+        <v>0.09395122027622116</v>
       </c>
       <c r="F7">
-        <v>1.01866386090407</v>
+        <v>0.994132706671266</v>
       </c>
       <c r="G7">
-        <v>0.0007717630998597059</v>
+        <v>0.00243202201952586</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7867244588909017</v>
+        <v>0.9466709561000286</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02919056295200839</v>
+        <v>0.111950018407768</v>
       </c>
       <c r="M7">
-        <v>2.293973670335347</v>
+        <v>1.00785591845117</v>
       </c>
       <c r="N7">
-        <v>3.259522723393189</v>
+        <v>1.546325914133831</v>
       </c>
       <c r="O7">
-        <v>3.290707161824031</v>
+        <v>3.491901597638559</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04373988205707136</v>
+        <v>0.1531248517285348</v>
       </c>
       <c r="D8">
-        <v>0.004591770125295547</v>
+        <v>0.01985933360777503</v>
       </c>
       <c r="E8">
-        <v>0.02067835059882428</v>
+        <v>0.09176918714206983</v>
       </c>
       <c r="F8">
-        <v>1.205006701923736</v>
+        <v>1.029544760222393</v>
       </c>
       <c r="G8">
-        <v>0.0007636026466975883</v>
+        <v>0.00242645404098496</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9174805807167985</v>
+        <v>0.9671867323828565</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.02508404398232678</v>
+        <v>0.109030073799568</v>
       </c>
       <c r="M8">
-        <v>2.767236076790695</v>
+        <v>1.156394234190017</v>
       </c>
       <c r="N8">
-        <v>3.804185285158951</v>
+        <v>1.725422813166972</v>
       </c>
       <c r="O8">
-        <v>3.873256767655107</v>
+        <v>3.595488149417974</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04116369364756522</v>
+        <v>0.1492543595368403</v>
       </c>
       <c r="D9">
-        <v>0.003652885469794143</v>
+        <v>0.01934128095765519</v>
       </c>
       <c r="E9">
-        <v>0.01570854686826373</v>
+        <v>0.08793979938449958</v>
       </c>
       <c r="F9">
-        <v>1.591699808118278</v>
+        <v>1.104895912507928</v>
       </c>
       <c r="G9">
-        <v>0.0007485026036173433</v>
+        <v>0.002416640683719813</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.191966412623628</v>
+        <v>1.012948539358149</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01823267303567633</v>
+        <v>0.1039170208396811</v>
       </c>
       <c r="M9">
-        <v>3.695991240262416</v>
+        <v>1.446477761939889</v>
       </c>
       <c r="N9">
-        <v>4.878615063995824</v>
+        <v>2.078062853888412</v>
       </c>
       <c r="O9">
-        <v>5.08795319489991</v>
+        <v>3.819292285386211</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03995923656906442</v>
+        <v>0.1467591805051605</v>
       </c>
       <c r="D10">
-        <v>0.0030362588267554</v>
+        <v>0.01899005629909123</v>
       </c>
       <c r="E10">
-        <v>0.01264279839046401</v>
+        <v>0.08540174195976036</v>
       </c>
       <c r="F10">
-        <v>1.893165662140703</v>
+        <v>1.163918541516125</v>
       </c>
       <c r="G10">
-        <v>0.000737891432480415</v>
+        <v>0.002410097434924348</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.408174198603447</v>
+        <v>1.04999101886601</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.01404693441151839</v>
+        <v>0.1005361466303487</v>
       </c>
       <c r="M10">
-        <v>4.380662411190883</v>
+        <v>1.658761291822785</v>
       </c>
       <c r="N10">
-        <v>5.673617753347798</v>
+        <v>2.337831498260812</v>
       </c>
       <c r="O10">
-        <v>6.039177874338691</v>
+        <v>3.996527943798753</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03958252104138893</v>
+        <v>0.1456999015387801</v>
       </c>
       <c r="D11">
-        <v>0.00277557850280008</v>
+        <v>0.01883667085239171</v>
       </c>
       <c r="E11">
-        <v>0.01139377249405249</v>
+        <v>0.08430719513995166</v>
       </c>
       <c r="F11">
-        <v>2.035175039929953</v>
+        <v>1.191578176916337</v>
       </c>
       <c r="G11">
-        <v>0.0007331523412009711</v>
+        <v>0.002407263942888237</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.510568589134991</v>
+        <v>1.067596603684876</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01235490826702446</v>
+        <v>0.09908010975093795</v>
       </c>
       <c r="M11">
-        <v>4.693135472224483</v>
+        <v>1.755130312702761</v>
       </c>
       <c r="N11">
-        <v>6.036947447975479</v>
+        <v>2.456118070216178</v>
       </c>
       <c r="O11">
-        <v>6.488346918801994</v>
+        <v>4.079983729685296</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03946648525759144</v>
+        <v>0.1453096959324895</v>
       </c>
       <c r="D12">
-        <v>0.002680115046761244</v>
+        <v>0.01877950833886644</v>
       </c>
       <c r="E12">
-        <v>0.01094343727411884</v>
+        <v>0.08390137754951044</v>
       </c>
       <c r="F12">
-        <v>2.089752781564329</v>
+        <v>1.202169581104357</v>
       </c>
       <c r="G12">
-        <v>0.0007313688898461081</v>
+        <v>0.002406211427120591</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.550005549759263</v>
+        <v>1.07437272063693</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01174726616742827</v>
+        <v>0.09854056995914462</v>
       </c>
       <c r="M12">
-        <v>4.811652835628152</v>
+        <v>1.791591770605237</v>
       </c>
       <c r="N12">
-        <v>6.174811679471418</v>
+        <v>2.500923245998706</v>
       </c>
       <c r="O12">
-        <v>6.661143635976998</v>
+        <v>4.111996547542901</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03949025805589201</v>
+        <v>0.1453932476579283</v>
       </c>
       <c r="D13">
-        <v>0.002700523190414472</v>
+        <v>0.01879177829509704</v>
       </c>
       <c r="E13">
-        <v>0.01103938917855296</v>
+        <v>0.08398839181126849</v>
       </c>
       <c r="F13">
-        <v>2.077961093061973</v>
+        <v>1.199883302424908</v>
       </c>
       <c r="G13">
-        <v>0.0007317525183431206</v>
+        <v>0.002406437196860676</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.541481242983835</v>
+        <v>1.072908491403581</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.01187661724348921</v>
+        <v>0.09865624262289607</v>
       </c>
       <c r="M13">
-        <v>4.786118742880831</v>
+        <v>1.783740581943846</v>
       </c>
       <c r="N13">
-        <v>6.145107093163858</v>
+        <v>2.491273153794225</v>
       </c>
       <c r="O13">
-        <v>6.623802600146746</v>
+        <v>4.105083736321717</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03957242915711134</v>
+        <v>0.1456675801029235</v>
       </c>
       <c r="D14">
-        <v>0.002767657004473456</v>
+        <v>0.01883194957971224</v>
       </c>
       <c r="E14">
-        <v>0.01135625902949777</v>
+        <v>0.0842736344711692</v>
       </c>
       <c r="F14">
-        <v>2.039648493166212</v>
+        <v>1.192447182450806</v>
       </c>
       <c r="G14">
-        <v>0.0007330054015673089</v>
+        <v>0.00240717694227616</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.513799318180688</v>
+        <v>1.068151884898711</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.01230423830688565</v>
+        <v>0.09903548413136498</v>
       </c>
       <c r="M14">
-        <v>4.702881868029095</v>
+        <v>1.758130663257219</v>
       </c>
       <c r="N14">
-        <v>6.048283796791168</v>
+        <v>2.459803989600573</v>
       </c>
       <c r="O14">
-        <v>6.502506692999646</v>
+        <v>4.082609211229624</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03962629014867147</v>
+        <v>0.1458370394483168</v>
       </c>
       <c r="D15">
-        <v>0.002809214663844095</v>
+        <v>0.01885667570268712</v>
       </c>
       <c r="E15">
-        <v>0.01155335300375215</v>
+        <v>0.08444948302381994</v>
       </c>
       <c r="F15">
-        <v>2.016288541734852</v>
+        <v>1.187907645031132</v>
       </c>
       <c r="G15">
-        <v>0.0007337742318748364</v>
+        <v>0.002407632719760968</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.496932171924826</v>
+        <v>1.06525257718738</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.01257055893004821</v>
+        <v>0.09926932249090825</v>
       </c>
       <c r="M15">
-        <v>4.65192313762968</v>
+        <v>1.742439680806712</v>
       </c>
       <c r="N15">
-        <v>5.989014271666008</v>
+        <v>2.440529739330714</v>
       </c>
       <c r="O15">
-        <v>6.428572593284969</v>
+        <v>4.068896386660981</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03998746782845686</v>
+        <v>0.1468299338323114</v>
       </c>
       <c r="D16">
-        <v>0.003053726590536598</v>
+        <v>0.01900020916822065</v>
       </c>
       <c r="E16">
-        <v>0.01272749762515257</v>
+        <v>0.08547448378292621</v>
       </c>
       <c r="F16">
-        <v>1.883991461389797</v>
+        <v>1.162127288389755</v>
       </c>
       <c r="G16">
-        <v>0.0007382027879148101</v>
+        <v>0.002410285480126641</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.401570554292562</v>
+        <v>1.048855702632622</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.01416199661729767</v>
+        <v>0.1006329549054676</v>
       </c>
       <c r="M16">
-        <v>4.360265649638166</v>
+        <v>1.652459100482218</v>
       </c>
       <c r="N16">
-        <v>5.649910228039062</v>
+        <v>2.330103182268999</v>
       </c>
       <c r="O16">
-        <v>6.010182957835923</v>
+        <v>3.991131115424707</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04025425632261559</v>
+        <v>0.1474584695776748</v>
       </c>
       <c r="D17">
-        <v>0.00320906973689894</v>
+        <v>0.01908990031404478</v>
       </c>
       <c r="E17">
-        <v>0.01348625839347672</v>
+        <v>0.08611868561126734</v>
       </c>
       <c r="F17">
-        <v>1.804147946246303</v>
+        <v>1.146519910599409</v>
       </c>
       <c r="G17">
-        <v>0.0007409410695975231</v>
+        <v>0.002411949429470463</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.344159427248599</v>
+        <v>1.038990583677659</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.01519438805049944</v>
+        <v>0.1014905192327209</v>
       </c>
       <c r="M17">
-        <v>4.181632766509153</v>
+        <v>1.597205847203341</v>
       </c>
       <c r="N17">
-        <v>5.442336574795547</v>
+        <v>2.262386947027665</v>
       </c>
       <c r="O17">
-        <v>5.757959286874836</v>
+        <v>3.944151639810627</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04042369052481121</v>
+        <v>0.1478271191632281</v>
       </c>
       <c r="D18">
-        <v>0.003300257781961413</v>
+        <v>0.01914208943375773</v>
       </c>
       <c r="E18">
-        <v>0.01393627161764721</v>
+        <v>0.08649486171085652</v>
       </c>
       <c r="F18">
-        <v>1.758675885099933</v>
+        <v>1.137619145516481</v>
       </c>
       <c r="G18">
-        <v>0.0007425244373076821</v>
+        <v>0.002412919961437515</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.311513012925673</v>
+        <v>1.033387427321671</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.01580798693704999</v>
+        <v>0.1019914772818709</v>
       </c>
       <c r="M18">
-        <v>4.078980151033292</v>
+        <v>1.565406987116177</v>
       </c>
       <c r="N18">
-        <v>5.323101254486858</v>
+        <v>2.223449569927141</v>
       </c>
       <c r="O18">
-        <v>5.614413065142855</v>
+        <v>3.917396522627882</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04048374521611464</v>
+        <v>0.1479531619228283</v>
       </c>
       <c r="D19">
-        <v>0.003331437126133707</v>
+        <v>0.01915986294317751</v>
       </c>
       <c r="E19">
-        <v>0.01409092347190444</v>
+        <v>0.08662319760708737</v>
       </c>
       <c r="F19">
-        <v>1.743354507423504</v>
+        <v>1.134618559148151</v>
       </c>
       <c r="G19">
-        <v>0.000743062021445815</v>
+        <v>0.002413250883862403</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.300521551546851</v>
+        <v>1.031502466916265</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.016019065336212</v>
+        <v>0.1021624157981567</v>
       </c>
       <c r="M19">
-        <v>4.044238316062476</v>
+        <v>1.554637317822397</v>
       </c>
       <c r="N19">
-        <v>5.28275585194524</v>
+        <v>2.210268095428091</v>
       </c>
       <c r="O19">
-        <v>5.566063108940966</v>
+        <v>3.908383337230532</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04022418795360494</v>
+        <v>0.1473908225361065</v>
       </c>
       <c r="D20">
-        <v>0.003192340191440657</v>
+        <v>0.01908029030455882</v>
       </c>
       <c r="E20">
-        <v>0.01340406816999917</v>
+        <v>0.08604952442850622</v>
       </c>
       <c r="F20">
-        <v>1.812599962541881</v>
+        <v>1.148173451680861</v>
       </c>
       <c r="G20">
-        <v>0.0007406487179425572</v>
+        <v>0.002411770905746991</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.350231571327257</v>
+        <v>1.040033389048446</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.01508242148052741</v>
+        <v>0.1013984317823375</v>
       </c>
       <c r="M20">
-        <v>4.200638682843618</v>
+        <v>1.603089599930357</v>
       </c>
       <c r="N20">
-        <v>5.464416783875947</v>
+        <v>2.269594325780304</v>
       </c>
       <c r="O20">
-        <v>5.784648624056672</v>
+        <v>3.949125109935835</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03954755429076329</v>
+        <v>0.1455867054646198</v>
       </c>
       <c r="D21">
-        <v>0.002747846454644431</v>
+        <v>0.01882012527689003</v>
       </c>
       <c r="E21">
-        <v>0.01126255779514729</v>
+        <v>0.08418961640940148</v>
       </c>
       <c r="F21">
-        <v>2.050879207538912</v>
+        <v>1.194628160979917</v>
       </c>
       <c r="G21">
-        <v>0.000732637109938949</v>
+        <v>0.002406959106335062</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.521911500257744</v>
+        <v>1.069546044303223</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.0121777157278915</v>
+        <v>0.09892377027469124</v>
       </c>
       <c r="M21">
-        <v>4.727324994630251</v>
+        <v>1.765653790456867</v>
       </c>
       <c r="N21">
-        <v>6.076715250006316</v>
+        <v>2.469046936180973</v>
       </c>
       <c r="O21">
-        <v>6.538057902004027</v>
+        <v>4.089199375497287</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0392615447185527</v>
+        <v>0.1444712730345934</v>
       </c>
       <c r="D22">
-        <v>0.002476524359284582</v>
+        <v>0.01865546330179235</v>
       </c>
       <c r="E22">
-        <v>0.0099958431871503</v>
+        <v>0.08302457147862763</v>
       </c>
       <c r="F22">
-        <v>2.211337568675518</v>
+        <v>1.225673106805559</v>
       </c>
       <c r="G22">
-        <v>0.0007274651729794902</v>
+        <v>0.002403933563995979</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.638019664961107</v>
+        <v>1.089471487181044</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.0104735794712898</v>
+        <v>0.09737541095816837</v>
       </c>
       <c r="M22">
-        <v>5.072681269412044</v>
+        <v>1.871714648326787</v>
       </c>
       <c r="N22">
-        <v>6.478535153833832</v>
+        <v>2.599472415249352</v>
       </c>
       <c r="O22">
-        <v>7.046413271887957</v>
+        <v>4.183136719767958</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.03939919255742907</v>
+        <v>0.1450607679696603</v>
       </c>
       <c r="D23">
-        <v>0.00261942978746621</v>
+        <v>0.01874285416769261</v>
       </c>
       <c r="E23">
-        <v>0.01065915040241427</v>
+        <v>0.08364174552152137</v>
       </c>
       <c r="F23">
-        <v>2.125228787114494</v>
+        <v>1.209040962668809</v>
       </c>
       <c r="G23">
-        <v>0.0007302202082408804</v>
+        <v>0.002405537476485511</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.575663974850201</v>
+        <v>1.078778355874761</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.01136441618395345</v>
+        <v>0.0981954726378067</v>
       </c>
       <c r="M23">
-        <v>4.888237673966501</v>
+        <v>1.8151257052576</v>
       </c>
       <c r="N23">
-        <v>6.263912093727924</v>
+        <v>2.52985667699329</v>
       </c>
       <c r="O23">
-        <v>6.773511915994618</v>
+        <v>4.132780871424416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04023773200755443</v>
+        <v>0.1474213830393936</v>
       </c>
       <c r="D24">
-        <v>0.003199897795151507</v>
+        <v>0.01908463304398644</v>
       </c>
       <c r="E24">
-        <v>0.01344118353971946</v>
+        <v>0.08608077408564863</v>
       </c>
       <c r="F24">
-        <v>1.808777470914464</v>
+        <v>1.147425661161094</v>
       </c>
       <c r="G24">
-        <v>0.0007407808617500685</v>
+        <v>0.002411851572970414</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.34748523969337</v>
+        <v>1.039561723636595</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.01513297926749324</v>
+        <v>0.1014400398118394</v>
       </c>
       <c r="M24">
-        <v>4.192045968705997</v>
+        <v>1.600429657997168</v>
       </c>
       <c r="N24">
-        <v>5.454434007887187</v>
+        <v>2.266335889499715</v>
       </c>
       <c r="O24">
-        <v>5.772577850771597</v>
+        <v>3.946875813098472</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04174666549756267</v>
+        <v>0.1502402939102794</v>
       </c>
       <c r="D25">
-        <v>0.003895214389204149</v>
+        <v>0.0194762716353658</v>
       </c>
       <c r="E25">
-        <v>0.01695606518880988</v>
+        <v>0.08892748440155385</v>
       </c>
       <c r="F25">
-        <v>1.484382428100844</v>
+        <v>1.083872700377412</v>
       </c>
       <c r="G25">
-        <v>0.0007524975488394389</v>
+        <v>0.002419177867402225</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.115431512855977</v>
+        <v>0.9999715613486302</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.01994613726762928</v>
+        <v>0.1052344098808771</v>
       </c>
       <c r="M25">
-        <v>3.444482920221617</v>
+        <v>1.368142308728864</v>
       </c>
       <c r="N25">
-        <v>4.587103791211121</v>
+        <v>1.982530848130693</v>
       </c>
       <c r="O25">
-        <v>4.750168404813678</v>
+        <v>3.756513228528092</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_245/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1525498355650114</v>
+        <v>0.04331162895874385</v>
       </c>
       <c r="D2">
-        <v>0.01978436094723257</v>
+        <v>0.004454800927715219</v>
       </c>
       <c r="E2">
-        <v>0.09120834119893473</v>
+        <v>0.0199301704455741</v>
       </c>
       <c r="F2">
-        <v>1.039537259670652</v>
+        <v>1.256786885837016</v>
       </c>
       <c r="G2">
-        <v>0.002425020479432729</v>
+        <v>0.0007614549597120268</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9731179099746328</v>
+        <v>0.9540122897298744</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1082803219544983</v>
+        <v>0.02404871243603424</v>
       </c>
       <c r="M2">
-        <v>1.196563620267767</v>
+        <v>2.895450714685012</v>
       </c>
       <c r="N2">
-        <v>1.774053148430852</v>
+        <v>3.952132432307735</v>
       </c>
       <c r="O2">
-        <v>3.624946256139026</v>
+        <v>4.035493679198737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.154260758059241</v>
+        <v>0.04462581299049617</v>
       </c>
       <c r="D3">
-        <v>0.02000544761482859</v>
+        <v>0.004858976669878334</v>
       </c>
       <c r="E3">
-        <v>0.09286899463377518</v>
+        <v>0.02216142733167187</v>
       </c>
       <c r="F3">
-        <v>1.011003328889217</v>
+        <v>1.108114260016038</v>
       </c>
       <c r="G3">
-        <v>0.002429262197577043</v>
+        <v>0.0007677539489653776</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9563343663396182</v>
+        <v>0.849342984955733</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1105012220155501</v>
+        <v>0.02713958502875968</v>
       </c>
       <c r="M3">
-        <v>1.079975144303546</v>
+        <v>2.523603507371618</v>
       </c>
       <c r="N3">
-        <v>1.633127766037092</v>
+        <v>3.523488788247789</v>
       </c>
       <c r="O3">
-        <v>3.541073715263963</v>
+        <v>3.570080280676564</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1553830669044487</v>
+        <v>0.04554883141339161</v>
       </c>
       <c r="D4">
-        <v>0.02014725347299073</v>
+        <v>0.005118123774118466</v>
       </c>
       <c r="E4">
-        <v>0.09394517187478457</v>
+        <v>0.02363013874357589</v>
       </c>
       <c r="F4">
-        <v>0.9942231773205066</v>
+        <v>1.01914777697634</v>
       </c>
       <c r="G4">
-        <v>0.002432006603751962</v>
+        <v>0.000771740897830912</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9467221436595921</v>
+        <v>0.7870624097087955</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1119419180728993</v>
+        <v>0.02917903167766056</v>
       </c>
       <c r="M4">
-        <v>1.008250412120361</v>
+        <v>2.295229086853922</v>
       </c>
       <c r="N4">
-        <v>1.54679984475311</v>
+        <v>3.260964094969466</v>
       </c>
       <c r="O4">
-        <v>3.492164271692445</v>
+        <v>3.292217086313741</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1558584556828642</v>
+        <v>0.04595290342684422</v>
       </c>
       <c r="D5">
-        <v>0.02020656256090136</v>
+        <v>0.00522631517738148</v>
       </c>
       <c r="E5">
-        <v>0.09439791282622079</v>
+        <v>0.02425238848494427</v>
       </c>
       <c r="F5">
-        <v>0.9875704221649499</v>
+        <v>0.9834178489068677</v>
       </c>
       <c r="G5">
-        <v>0.002433160283143916</v>
+        <v>0.0007733965297864312</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9429786942008249</v>
+        <v>0.7621350971855563</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1125483527025919</v>
+        <v>0.03004411639677418</v>
       </c>
       <c r="M5">
-        <v>0.9789896064578585</v>
+        <v>2.202128202603475</v>
       </c>
       <c r="N5">
-        <v>1.511675152813581</v>
+        <v>3.154129983189051</v>
       </c>
       <c r="O5">
-        <v>3.472881645203643</v>
+        <v>3.180776987483142</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1559384826967545</v>
+        <v>0.04602165086999577</v>
       </c>
       <c r="D6">
-        <v>0.02021650268407882</v>
+        <v>0.005244431786167514</v>
       </c>
       <c r="E6">
-        <v>0.09447394643256513</v>
+        <v>0.02435711568496718</v>
       </c>
       <c r="F6">
-        <v>0.9864769070927082</v>
+        <v>0.9775149724210053</v>
       </c>
       <c r="G6">
-        <v>0.002433353986788789</v>
+        <v>0.0007736733390744433</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9423675643306311</v>
+        <v>0.7580219513983835</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1126502176869106</v>
+        <v>0.03018977044508375</v>
       </c>
       <c r="M6">
-        <v>0.9741289904716126</v>
+        <v>2.186666080984509</v>
       </c>
       <c r="N6">
-        <v>1.505846146994145</v>
+        <v>3.136398579732173</v>
       </c>
       <c r="O6">
-        <v>3.469718865053323</v>
+        <v>3.162375170603752</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1553894051448239</v>
+        <v>0.04555416938049106</v>
       </c>
       <c r="D7">
-        <v>0.0201480471747888</v>
+        <v>0.005119572623269786</v>
       </c>
       <c r="E7">
-        <v>0.09395122027622116</v>
+        <v>0.02363843589748166</v>
       </c>
       <c r="F7">
-        <v>0.994132706671266</v>
+        <v>1.018663860904084</v>
       </c>
       <c r="G7">
-        <v>0.00243202201952586</v>
+        <v>0.0007717630998881815</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9466709561000286</v>
+        <v>0.7867244588908946</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.111950018407768</v>
+        <v>0.02919056295204658</v>
       </c>
       <c r="M7">
-        <v>1.00785591845117</v>
+        <v>2.293973670335319</v>
       </c>
       <c r="N7">
-        <v>1.546325914133831</v>
+        <v>3.259522723393189</v>
       </c>
       <c r="O7">
-        <v>3.491901597638559</v>
+        <v>3.290707161824059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1531248517285348</v>
+        <v>0.04373988205723833</v>
       </c>
       <c r="D8">
-        <v>0.01985933360777503</v>
+        <v>0.004591770125070838</v>
       </c>
       <c r="E8">
-        <v>0.09176918714206983</v>
+        <v>0.02067835059881018</v>
       </c>
       <c r="F8">
-        <v>1.029544760222393</v>
+        <v>1.205006701923736</v>
       </c>
       <c r="G8">
-        <v>0.00242645404098496</v>
+        <v>0.0007636026466195004</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9671867323828565</v>
+        <v>0.9174805807167985</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.109030073799568</v>
+        <v>0.02508404398228503</v>
       </c>
       <c r="M8">
-        <v>1.156394234190017</v>
+        <v>2.767236076790681</v>
       </c>
       <c r="N8">
-        <v>1.725422813166972</v>
+        <v>3.804185285158979</v>
       </c>
       <c r="O8">
-        <v>3.595488149417974</v>
+        <v>3.873256767655221</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1492543595368403</v>
+        <v>0.04116369364767181</v>
       </c>
       <c r="D9">
-        <v>0.01934128095765519</v>
+        <v>0.003652885469704437</v>
       </c>
       <c r="E9">
-        <v>0.08793979938449958</v>
+        <v>0.01570854686826206</v>
       </c>
       <c r="F9">
-        <v>1.104895912507928</v>
+        <v>1.591699808118278</v>
       </c>
       <c r="G9">
-        <v>0.002416640683719813</v>
+        <v>0.0007485026036604231</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.012948539358149</v>
+        <v>1.191966412623628</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1039170208396811</v>
+        <v>0.01823267303566567</v>
       </c>
       <c r="M9">
-        <v>1.446477761939889</v>
+        <v>3.69599124026243</v>
       </c>
       <c r="N9">
-        <v>2.078062853888412</v>
+        <v>4.878615063995824</v>
       </c>
       <c r="O9">
-        <v>3.819292285386211</v>
+        <v>5.08795319489991</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1467591805051605</v>
+        <v>0.03995923656902889</v>
       </c>
       <c r="D10">
-        <v>0.01899005629909123</v>
+        <v>0.003036258826655924</v>
       </c>
       <c r="E10">
-        <v>0.08540174195976036</v>
+        <v>0.01264279839044757</v>
       </c>
       <c r="F10">
-        <v>1.163918541516125</v>
+        <v>1.893165662140674</v>
       </c>
       <c r="G10">
-        <v>0.002410097434924348</v>
+        <v>0.0007378914324317751</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.04999101886601</v>
+        <v>1.408174198603461</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1005361466303487</v>
+        <v>0.01404693441145888</v>
       </c>
       <c r="M10">
-        <v>1.658761291822785</v>
+        <v>4.380662411190883</v>
       </c>
       <c r="N10">
-        <v>2.337831498260812</v>
+        <v>5.673617753347798</v>
       </c>
       <c r="O10">
-        <v>3.996527943798753</v>
+        <v>6.039177874338691</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1456999015387801</v>
+        <v>0.03958252104141025</v>
       </c>
       <c r="D11">
-        <v>0.01883667085239171</v>
+        <v>0.002775578502903109</v>
       </c>
       <c r="E11">
-        <v>0.08430719513995166</v>
+        <v>0.01139377249407914</v>
       </c>
       <c r="F11">
-        <v>1.191578176916337</v>
+        <v>2.035175039929925</v>
       </c>
       <c r="G11">
-        <v>0.002407263942888237</v>
+        <v>0.0007331523412302066</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.067596603684876</v>
+        <v>1.510568589134991</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09908010975093795</v>
+        <v>0.01235490826692587</v>
       </c>
       <c r="M11">
-        <v>1.755130312702761</v>
+        <v>4.693135472224441</v>
       </c>
       <c r="N11">
-        <v>2.456118070216178</v>
+        <v>6.036947447975479</v>
       </c>
       <c r="O11">
-        <v>4.079983729685296</v>
+        <v>6.488346918801994</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1453096959324895</v>
+        <v>0.03946648525737828</v>
       </c>
       <c r="D12">
-        <v>0.01877950833886644</v>
+        <v>0.002680115046874931</v>
       </c>
       <c r="E12">
-        <v>0.08390137754951044</v>
+        <v>0.01094343727411973</v>
       </c>
       <c r="F12">
-        <v>1.202169581104357</v>
+        <v>2.089752781564314</v>
       </c>
       <c r="G12">
-        <v>0.002406211427120591</v>
+        <v>0.0007313688898964875</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.07437272063693</v>
+        <v>1.550005549759234</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09854056995914462</v>
+        <v>0.01174726616743804</v>
       </c>
       <c r="M12">
-        <v>1.791591770605237</v>
+        <v>4.811652835628166</v>
       </c>
       <c r="N12">
-        <v>2.500923245998706</v>
+        <v>6.174811679471418</v>
       </c>
       <c r="O12">
-        <v>4.111996547542901</v>
+        <v>6.661143635976998</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1453932476579283</v>
+        <v>0.03949025805565043</v>
       </c>
       <c r="D13">
-        <v>0.01879177829509704</v>
+        <v>0.002700523190423354</v>
       </c>
       <c r="E13">
-        <v>0.08398839181126849</v>
+        <v>0.01103938917856429</v>
       </c>
       <c r="F13">
-        <v>1.199883302424908</v>
+        <v>2.077961093061987</v>
       </c>
       <c r="G13">
-        <v>0.002406437196860676</v>
+        <v>0.0007317525183422324</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.072908491403581</v>
+        <v>1.541481242983863</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09865624262289607</v>
+        <v>0.01187661724363664</v>
       </c>
       <c r="M13">
-        <v>1.783740581943846</v>
+        <v>4.786118742880788</v>
       </c>
       <c r="N13">
-        <v>2.491273153794225</v>
+        <v>6.145107093163801</v>
       </c>
       <c r="O13">
-        <v>4.105083736321717</v>
+        <v>6.623802600146746</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1456675801029235</v>
+        <v>0.03957242915731385</v>
       </c>
       <c r="D14">
-        <v>0.01883194957971224</v>
+        <v>0.002767657004361546</v>
       </c>
       <c r="E14">
-        <v>0.0842736344711692</v>
+        <v>0.01135625902951154</v>
       </c>
       <c r="F14">
-        <v>1.192447182450806</v>
+        <v>2.039648493166197</v>
       </c>
       <c r="G14">
-        <v>0.00240717694227616</v>
+        <v>0.000733005401517734</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.068151884898711</v>
+        <v>1.513799318180688</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09903548413136498</v>
+        <v>0.01230423830688032</v>
       </c>
       <c r="M14">
-        <v>1.758130663257219</v>
+        <v>4.702881868029124</v>
       </c>
       <c r="N14">
-        <v>2.459803989600573</v>
+        <v>6.048283796791168</v>
       </c>
       <c r="O14">
-        <v>4.082609211229624</v>
+        <v>6.502506692999646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1458370394483168</v>
+        <v>0.03962629014889529</v>
       </c>
       <c r="D15">
-        <v>0.01885667570268712</v>
+        <v>0.002809214663636261</v>
       </c>
       <c r="E15">
-        <v>0.08444948302381994</v>
+        <v>0.01155335300375193</v>
       </c>
       <c r="F15">
-        <v>1.187907645031132</v>
+        <v>2.016288541734838</v>
       </c>
       <c r="G15">
-        <v>0.002407632719760968</v>
+        <v>0.0007337742319510602</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.06525257718738</v>
+        <v>1.496932171924826</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09926932249090825</v>
+        <v>0.01257055892999759</v>
       </c>
       <c r="M15">
-        <v>1.742439680806712</v>
+        <v>4.651923137629709</v>
       </c>
       <c r="N15">
-        <v>2.440529739330714</v>
+        <v>5.989014271665837</v>
       </c>
       <c r="O15">
-        <v>4.068896386660981</v>
+        <v>6.428572593284912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1468299338323114</v>
+        <v>0.0399874678284533</v>
       </c>
       <c r="D16">
-        <v>0.01900020916822065</v>
+        <v>0.003053726590630745</v>
       </c>
       <c r="E16">
-        <v>0.08547448378292621</v>
+        <v>0.01272749762515168</v>
       </c>
       <c r="F16">
-        <v>1.162127288389755</v>
+        <v>1.883991461389812</v>
       </c>
       <c r="G16">
-        <v>0.002410285480126641</v>
+        <v>0.0007382027879422453</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.048855702632622</v>
+        <v>1.401570554292562</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1006329549054676</v>
+        <v>0.01416199661718043</v>
       </c>
       <c r="M16">
-        <v>1.652459100482218</v>
+        <v>4.36026564963818</v>
       </c>
       <c r="N16">
-        <v>2.330103182268999</v>
+        <v>5.649910228039232</v>
       </c>
       <c r="O16">
-        <v>3.991131115424707</v>
+        <v>6.01018295783598</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1474584695776748</v>
+        <v>0.0402542563226902</v>
       </c>
       <c r="D17">
-        <v>0.01908990031404478</v>
+        <v>0.003209069736916703</v>
       </c>
       <c r="E17">
-        <v>0.08611868561126734</v>
+        <v>0.01348625839347739</v>
       </c>
       <c r="F17">
-        <v>1.146519910599409</v>
+        <v>1.804147946246289</v>
       </c>
       <c r="G17">
-        <v>0.002411949429470463</v>
+        <v>0.0007409410696253812</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.038990583677659</v>
+        <v>1.344159427248584</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1014905192327209</v>
+        <v>0.01519438805065132</v>
       </c>
       <c r="M17">
-        <v>1.597205847203341</v>
+        <v>4.181632766509125</v>
       </c>
       <c r="N17">
-        <v>2.262386947027665</v>
+        <v>5.442336574795434</v>
       </c>
       <c r="O17">
-        <v>3.944151639810627</v>
+        <v>5.757959286874893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1478271191632281</v>
+        <v>0.04042369052481831</v>
       </c>
       <c r="D18">
-        <v>0.01914208943375773</v>
+        <v>0.003300257782061777</v>
       </c>
       <c r="E18">
-        <v>0.08649486171085652</v>
+        <v>0.01393627161762145</v>
       </c>
       <c r="F18">
-        <v>1.137619145516481</v>
+        <v>1.758675885099905</v>
       </c>
       <c r="G18">
-        <v>0.002412919961437515</v>
+        <v>0.0007425244373368164</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.033387427321671</v>
+        <v>1.311513012925658</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1019914772818709</v>
+        <v>0.0158079869370189</v>
       </c>
       <c r="M18">
-        <v>1.565406987116177</v>
+        <v>4.078980151033321</v>
       </c>
       <c r="N18">
-        <v>2.223449569927141</v>
+        <v>5.323101254486858</v>
       </c>
       <c r="O18">
-        <v>3.917396522627882</v>
+        <v>5.614413065142742</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1479531619228283</v>
+        <v>0.04048374521610754</v>
       </c>
       <c r="D19">
-        <v>0.01915986294317751</v>
+        <v>0.003331437126017356</v>
       </c>
       <c r="E19">
-        <v>0.08662319760708737</v>
+        <v>0.0140909234718567</v>
       </c>
       <c r="F19">
-        <v>1.134618559148151</v>
+        <v>1.743354507423533</v>
       </c>
       <c r="G19">
-        <v>0.002413250883862403</v>
+        <v>0.0007430620214905302</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.031502466916265</v>
+        <v>1.300521551546836</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1021624157981567</v>
+        <v>0.01601906533620756</v>
       </c>
       <c r="M19">
-        <v>1.554637317822397</v>
+        <v>4.044238316062462</v>
       </c>
       <c r="N19">
-        <v>2.210268095428091</v>
+        <v>5.282755851945126</v>
       </c>
       <c r="O19">
-        <v>3.908383337230532</v>
+        <v>5.56606310894108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1473908225361065</v>
+        <v>0.04022418795319993</v>
       </c>
       <c r="D20">
-        <v>0.01908029030455882</v>
+        <v>0.003192340191644938</v>
       </c>
       <c r="E20">
-        <v>0.08604952442850622</v>
+        <v>0.01340406817000028</v>
       </c>
       <c r="F20">
-        <v>1.148173451680861</v>
+        <v>1.812599962541881</v>
       </c>
       <c r="G20">
-        <v>0.002411770905746991</v>
+        <v>0.0007406487179423997</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.040033389048446</v>
+        <v>1.350231571327242</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1013984317823375</v>
+        <v>0.01508242148052563</v>
       </c>
       <c r="M20">
-        <v>1.603089599930357</v>
+        <v>4.20063868284366</v>
       </c>
       <c r="N20">
-        <v>2.269594325780304</v>
+        <v>5.464416783875947</v>
       </c>
       <c r="O20">
-        <v>3.949125109935835</v>
+        <v>5.784648624056615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1455867054646198</v>
+        <v>0.03954755429056789</v>
       </c>
       <c r="D21">
-        <v>0.01882012527689003</v>
+        <v>0.002747846454756342</v>
       </c>
       <c r="E21">
-        <v>0.08418961640940148</v>
+        <v>0.01126255779516283</v>
       </c>
       <c r="F21">
-        <v>1.194628160979917</v>
+        <v>2.050879207538898</v>
       </c>
       <c r="G21">
-        <v>0.002406959106335062</v>
+        <v>0.0007326371098559705</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.069546044303223</v>
+        <v>1.521911500257744</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09892377027469124</v>
+        <v>0.01217771572779203</v>
       </c>
       <c r="M21">
-        <v>1.765653790456867</v>
+        <v>4.727324994630223</v>
       </c>
       <c r="N21">
-        <v>2.469046936180973</v>
+        <v>6.076715250006316</v>
       </c>
       <c r="O21">
-        <v>4.089199375497287</v>
+        <v>6.538057902004027</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1444712730345934</v>
+        <v>0.03926154471832888</v>
       </c>
       <c r="D22">
-        <v>0.01865546330179235</v>
+        <v>0.002476524359287247</v>
       </c>
       <c r="E22">
-        <v>0.08302457147862763</v>
+        <v>0.009995843187190268</v>
       </c>
       <c r="F22">
-        <v>1.225673106805559</v>
+        <v>2.211337568675503</v>
       </c>
       <c r="G22">
-        <v>0.002403933563995979</v>
+        <v>0.000727465172924445</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.089471487181044</v>
+        <v>1.638019664961092</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09737541095816837</v>
+        <v>0.01047357947123384</v>
       </c>
       <c r="M22">
-        <v>1.871714648326787</v>
+        <v>5.072681269412044</v>
       </c>
       <c r="N22">
-        <v>2.599472415249352</v>
+        <v>6.478535153833604</v>
       </c>
       <c r="O22">
-        <v>4.183136719767958</v>
+        <v>7.046413271888014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1450607679696603</v>
+        <v>0.03939919255742197</v>
       </c>
       <c r="D23">
-        <v>0.01874285416769261</v>
+        <v>0.002619429787369398</v>
       </c>
       <c r="E23">
-        <v>0.08364174552152137</v>
+        <v>0.0106591504024145</v>
       </c>
       <c r="F23">
-        <v>1.209040962668809</v>
+        <v>2.125228787114509</v>
       </c>
       <c r="G23">
-        <v>0.002405537476485511</v>
+        <v>0.0007302202083518028</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.078778355874761</v>
+        <v>1.575663974850201</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.0981954726378067</v>
+        <v>0.01136441618390371</v>
       </c>
       <c r="M23">
-        <v>1.8151257052576</v>
+        <v>4.888237673966472</v>
       </c>
       <c r="N23">
-        <v>2.52985667699329</v>
+        <v>6.263912093727868</v>
       </c>
       <c r="O23">
-        <v>4.132780871424416</v>
+        <v>6.773511915994618</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1474213830393936</v>
+        <v>0.04023773200788483</v>
       </c>
       <c r="D24">
-        <v>0.01908463304398644</v>
+        <v>0.003199897795147066</v>
       </c>
       <c r="E24">
-        <v>0.08608077408564863</v>
+        <v>0.01344118353973101</v>
       </c>
       <c r="F24">
-        <v>1.147425661161094</v>
+        <v>1.808777470914478</v>
       </c>
       <c r="G24">
-        <v>0.002411851572970414</v>
+        <v>0.0007407808617025081</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.039561723636595</v>
+        <v>1.34748523969337</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1014400398118394</v>
+        <v>0.01513297926748436</v>
       </c>
       <c r="M24">
-        <v>1.600429657997168</v>
+        <v>4.192045968705997</v>
       </c>
       <c r="N24">
-        <v>2.266335889499715</v>
+        <v>5.454434007887187</v>
       </c>
       <c r="O24">
-        <v>3.946875813098472</v>
+        <v>5.772577850771597</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1502402939102794</v>
+        <v>0.04174666549784689</v>
       </c>
       <c r="D25">
-        <v>0.0194762716353658</v>
+        <v>0.003895214389314283</v>
       </c>
       <c r="E25">
-        <v>0.08892748440155385</v>
+        <v>0.01695606518881032</v>
       </c>
       <c r="F25">
-        <v>1.083872700377412</v>
+        <v>1.484382428100844</v>
       </c>
       <c r="G25">
-        <v>0.002419177867402225</v>
+        <v>0.0007524975487831871</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9999715613486302</v>
+        <v>1.115431512855992</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1052344098808771</v>
+        <v>0.01994613726762484</v>
       </c>
       <c r="M25">
-        <v>1.368142308728864</v>
+        <v>3.444482920221688</v>
       </c>
       <c r="N25">
-        <v>1.982530848130693</v>
+        <v>4.587103791211121</v>
       </c>
       <c r="O25">
-        <v>3.756513228528092</v>
+        <v>4.750168404813621</v>
       </c>
     </row>
   </sheetData>
